--- a/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/010_System_Functional_Design/System_function_design(screen)_WA10201_Project_registration.xlsx
+++ b/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/010_System_Functional_Design/System_function_design(screen)_WA10201_Project_registration.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" updateLinks="never" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479D6AB2-92B1-4A50-B694-807CF9498C77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C0CA6C-2C51-46D3-A5BE-F4951DCA68E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3705" yWindow="6180" windowWidth="22920" windowHeight="6990" tabRatio="951" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" tabRatio="951" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="11" state="hidden" r:id="rId1"/>
@@ -38,17 +38,7 @@
     <definedName name="画面項目種類">Data!$A$2:$A$12</definedName>
     <definedName name="種別一覧">Data!$C$2:$C$7</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -826,7 +816,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="293">
   <si>
     <t>PJ名</t>
   </si>
@@ -1148,9 +1138,6 @@
     <t>project_name</t>
   </si>
   <si>
-    <t>PJ type</t>
-  </si>
-  <si>
     <t>Project type</t>
   </si>
   <si>
@@ -1175,9 +1162,6 @@
     <t>project_class</t>
   </si>
   <si>
-    <t>Turnover</t>
-  </si>
-  <si>
     <t>sales</t>
   </si>
   <si>
@@ -1428,10 +1412,6 @@
   </si>
   <si>
     <t>validator.dateRange.message</t>
-  </si>
-  <si>
-    <t>{0}: Project end date
-{1}: Project start date</t>
   </si>
   <si>
     <t>If an error occurs at any one point in the above validation, then subsequent processing is not carried out.</t>
@@ -1692,6 +1672,71 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>Sales</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Project type</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Project classification</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Start date</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>End date</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Note</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>note</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Sales</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Client</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Project type</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Project classification</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Note</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Project name</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Start date</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>End date</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>{0}: End date
+{1}: Start date</t>
+    <phoneticPr fontId="11"/>
   </si>
 </sst>
 </file>
@@ -3948,63 +3993,46 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>82621</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>13569</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="図 9">
+        <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF350591-2FA6-410D-9C7A-D310EAD028D4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="914400" y="971550"/>
-          <a:ext cx="6657975" cy="5810250"/>
+          <a:off x="1200151" y="504826"/>
+          <a:ext cx="5788095" cy="5757143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -4377,25 +4405,25 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>218115</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>50711</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>24251</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
+        <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B104B38-50F6-49E0-9943-CC4410DAE9E3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4411,8 +4439,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="866775" y="609601"/>
-          <a:ext cx="7638090" cy="4581524"/>
+          <a:off x="2266950" y="942975"/>
+          <a:ext cx="5794286" cy="4110476"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4423,16 +4451,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:colOff>114299</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4449,8 +4477,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2533649" y="1600200"/>
-          <a:ext cx="5591176" cy="3676650"/>
+          <a:off x="3638549" y="1238249"/>
+          <a:ext cx="4486275" cy="3609975"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -4482,15 +4510,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>105335</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>146797</xdr:rowOff>
+      <xdr:colOff>200585</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>137272</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4507,7 +4535,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7896225" y="1295400"/>
+          <a:off x="7991475" y="704850"/>
           <a:ext cx="1324535" cy="499222"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
@@ -4574,25 +4602,25 @@
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>161923</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>266825</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>8748</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>54000</xdr:rowOff>
+      <xdr:rowOff>28282</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
+        <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D03C9EB3-CBAD-4022-9BBF-82E0BF212680}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4608,8 +4636,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="828675" y="1038225"/>
-          <a:ext cx="6620000" cy="2340000"/>
+          <a:off x="714373" y="590549"/>
+          <a:ext cx="6200000" cy="2333333"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7246,7 +7274,7 @@
   <dimension ref="A1:AI52"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7593,7 +7621,7 @@
       <c r="O5" s="38"/>
       <c r="P5" s="38"/>
       <c r="Q5" s="41" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="R5" s="38"/>
       <c r="S5" s="38"/>
@@ -7654,7 +7682,7 @@
     <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="42"/>
       <c r="B7" s="43" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C7" s="43"/>
       <c r="D7" s="44"/>
@@ -7694,7 +7722,7 @@
       <c r="A8" s="42"/>
       <c r="B8" s="43"/>
       <c r="C8" s="43" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D8" s="44"/>
       <c r="E8" s="44"/>
@@ -7769,7 +7797,7 @@
     <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="42"/>
       <c r="B10" s="53" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C10" s="44"/>
       <c r="D10" s="42"/>
@@ -8069,7 +8097,7 @@
     <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="42"/>
       <c r="B18" s="53" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C18" s="44"/>
       <c r="D18" s="38"/>
@@ -9034,7 +9062,7 @@
   <dimension ref="A1:AI52"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -9199,19 +9227,19 @@
     <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="58" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="58" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="82"/>
       <c r="C8" s="280" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D8" s="281"/>
       <c r="E8" s="281"/>
@@ -9249,7 +9277,7 @@
     <row r="9" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="82"/>
       <c r="C9" s="285" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D9" s="286"/>
       <c r="E9" s="286"/>
@@ -9287,7 +9315,7 @@
     <row r="10" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="82"/>
       <c r="C10" s="271" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D10" s="272"/>
       <c r="E10" s="272"/>
@@ -9544,7 +9572,7 @@
   <dimension ref="A1:BF163"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -10070,7 +10098,7 @@
       <c r="AA57" s="272"/>
       <c r="AB57" s="273"/>
       <c r="AC57" s="394" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AD57" s="274"/>
       <c r="AE57" s="275"/>
@@ -10225,7 +10253,7 @@
       <c r="AA60" s="290"/>
       <c r="AB60" s="291"/>
       <c r="AC60" s="106" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="AD60" s="289" t="s">
         <v>96</v>
@@ -10293,7 +10321,7 @@
       <c r="AA61" s="290"/>
       <c r="AB61" s="291"/>
       <c r="AC61" s="106" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="AD61" s="289" t="s">
         <v>96</v>
@@ -10361,7 +10389,7 @@
       <c r="AA62" s="297"/>
       <c r="AB62" s="297"/>
       <c r="AC62" s="106" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="AD62" s="289" t="s">
         <v>103</v>
@@ -10398,7 +10426,7 @@
         <v>4</v>
       </c>
       <c r="E63" s="283" t="s">
-        <v>106</v>
+        <v>278</v>
       </c>
       <c r="F63" s="284"/>
       <c r="G63" s="284"/>
@@ -10430,10 +10458,10 @@
       <c r="AA63" s="297"/>
       <c r="AB63" s="297"/>
       <c r="AC63" s="106" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="AD63" s="289" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AE63" s="290"/>
       <c r="AF63" s="290"/>
@@ -10443,19 +10471,19 @@
       <c r="AJ63" s="49"/>
       <c r="AK63" s="49"/>
       <c r="AL63" s="283" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM63" s="284" t="s">
         <v>108</v>
       </c>
-      <c r="AM63" s="284" t="s">
-        <v>109</v>
-      </c>
       <c r="AN63" s="284" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AO63" s="284" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AP63" s="296" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AQ63" s="49"/>
       <c r="AR63" s="49"/>
@@ -10467,13 +10495,13 @@
         <v>5</v>
       </c>
       <c r="E64" s="283" t="s">
-        <v>110</v>
+        <v>279</v>
       </c>
       <c r="F64" s="284"/>
       <c r="G64" s="284"/>
       <c r="H64" s="296"/>
       <c r="I64" s="292" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J64" s="292"/>
       <c r="K64" s="292"/>
@@ -10499,10 +10527,10 @@
       <c r="AA64" s="297"/>
       <c r="AB64" s="297"/>
       <c r="AC64" s="106" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="AD64" s="289" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AE64" s="290"/>
       <c r="AF64" s="290"/>
@@ -10512,19 +10540,19 @@
       <c r="AJ64" s="49"/>
       <c r="AK64" s="49"/>
       <c r="AL64" s="283" t="s">
+        <v>112</v>
+      </c>
+      <c r="AM64" s="284" t="s">
         <v>113</v>
       </c>
-      <c r="AM64" s="284" t="s">
-        <v>114</v>
-      </c>
       <c r="AN64" s="284" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AO64" s="284" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AP64" s="296" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AQ64" s="49"/>
       <c r="AR64" s="49"/>
@@ -10536,7 +10564,7 @@
         <v>6</v>
       </c>
       <c r="E65" s="283" t="s">
-        <v>115</v>
+        <v>277</v>
       </c>
       <c r="F65" s="284"/>
       <c r="G65" s="284"/>
@@ -10573,25 +10601,25 @@
         <v>51</v>
       </c>
       <c r="AD65" s="289" t="s">
-        <v>115</v>
+        <v>277</v>
       </c>
       <c r="AE65" s="290"/>
       <c r="AF65" s="290"/>
       <c r="AG65" s="291"/>
       <c r="AL65" s="283" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AM65" s="284" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AN65" s="284" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AO65" s="284" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AP65" s="296" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AY65" s="56"/>
     </row>
@@ -10600,13 +10628,13 @@
         <v>7</v>
       </c>
       <c r="E66" s="283" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F66" s="284"/>
       <c r="G66" s="284"/>
       <c r="H66" s="296"/>
       <c r="I66" s="292" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J66" s="292"/>
       <c r="K66" s="292"/>
@@ -10634,16 +10662,16 @@
       <c r="AA66" s="290"/>
       <c r="AB66" s="291"/>
       <c r="AC66" s="106" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="AD66" s="289" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AE66" s="290"/>
       <c r="AF66" s="290"/>
       <c r="AG66" s="291"/>
       <c r="AL66" s="283" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AM66" s="284" t="s">
         <v>98</v>
@@ -10668,7 +10696,7 @@
         <v>8</v>
       </c>
       <c r="E67" s="283" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F67" s="284"/>
       <c r="G67" s="284"/>
@@ -10702,28 +10730,28 @@
       <c r="AA67" s="290"/>
       <c r="AB67" s="291"/>
       <c r="AC67" s="106" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="AD67" s="289" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AE67" s="290"/>
       <c r="AF67" s="290"/>
       <c r="AG67" s="291"/>
       <c r="AL67" s="283" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AM67" s="284" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AN67" s="284" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AO67" s="284" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AP67" s="296" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AU67" s="107"/>
       <c r="AV67" s="108"/>
@@ -10736,7 +10764,7 @@
         <v>9</v>
       </c>
       <c r="E68" s="283" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F68" s="284"/>
       <c r="G68" s="284"/>
@@ -10770,28 +10798,28 @@
       <c r="AA68" s="290"/>
       <c r="AB68" s="291"/>
       <c r="AC68" s="106" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="AD68" s="289" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AE68" s="290"/>
       <c r="AF68" s="290"/>
       <c r="AG68" s="291"/>
       <c r="AL68" s="289" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AM68" s="290" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AN68" s="290" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AO68" s="290" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AP68" s="291" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AR68" s="49"/>
       <c r="AS68" s="49"/>
@@ -10802,7 +10830,7 @@
         <v>10</v>
       </c>
       <c r="E69" s="289" t="s">
-        <v>128</v>
+        <v>280</v>
       </c>
       <c r="F69" s="290"/>
       <c r="G69" s="290"/>
@@ -10836,10 +10864,10 @@
       <c r="AA69" s="290"/>
       <c r="AB69" s="291"/>
       <c r="AC69" s="106" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="AD69" s="289" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AE69" s="290"/>
       <c r="AF69" s="290"/>
@@ -10849,19 +10877,19 @@
       <c r="AJ69" s="72"/>
       <c r="AK69" s="49"/>
       <c r="AL69" s="283" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AM69" s="284" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AN69" s="284" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AO69" s="284" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AP69" s="296" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AQ69" s="49"/>
       <c r="AR69" s="49"/>
@@ -10871,7 +10899,7 @@
         <v>11</v>
       </c>
       <c r="E70" s="289" t="s">
-        <v>132</v>
+        <v>281</v>
       </c>
       <c r="F70" s="290"/>
       <c r="G70" s="290"/>
@@ -10905,28 +10933,28 @@
       <c r="AA70" s="290"/>
       <c r="AB70" s="291"/>
       <c r="AC70" s="106" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="AD70" s="289" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AE70" s="290"/>
       <c r="AF70" s="290"/>
       <c r="AG70" s="291"/>
       <c r="AL70" s="283" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AM70" s="284" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AN70" s="284" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AO70" s="284" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AP70" s="296" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AU70" s="107"/>
       <c r="AV70" s="107"/>
@@ -10939,13 +10967,13 @@
         <v>12</v>
       </c>
       <c r="E71" s="283" t="s">
-        <v>83</v>
+        <v>282</v>
       </c>
       <c r="F71" s="284"/>
       <c r="G71" s="284"/>
       <c r="H71" s="296"/>
       <c r="I71" s="292" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J71" s="292"/>
       <c r="K71" s="292"/>
@@ -10976,25 +11004,25 @@
         <v>51</v>
       </c>
       <c r="AD71" s="289" t="s">
-        <v>83</v>
+        <v>283</v>
       </c>
       <c r="AE71" s="290"/>
       <c r="AF71" s="290"/>
       <c r="AG71" s="291"/>
       <c r="AL71" s="283" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AM71" s="284" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AN71" s="284" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AO71" s="284" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AP71" s="296" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AY71" s="56"/>
     </row>
@@ -11110,7 +11138,7 @@
         <v>42</v>
       </c>
       <c r="E76" s="322" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F76" s="323"/>
       <c r="G76" s="323"/>
@@ -11118,16 +11146,16 @@
       <c r="I76" s="323"/>
       <c r="J76" s="324"/>
       <c r="K76" s="322" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L76" s="323"/>
       <c r="M76" s="323"/>
       <c r="N76" s="324"/>
       <c r="O76" s="320" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P76" s="113" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q76" s="114"/>
       <c r="R76" s="114"/>
@@ -11177,19 +11205,19 @@
       <c r="N77" s="327"/>
       <c r="O77" s="321"/>
       <c r="P77" s="115" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q77" s="115" t="s">
+        <v>140</v>
+      </c>
+      <c r="R77" s="115" t="s">
         <v>141</v>
       </c>
-      <c r="Q77" s="115" t="s">
+      <c r="S77" s="115" t="s">
         <v>142</v>
       </c>
-      <c r="R77" s="115" t="s">
+      <c r="T77" s="328" t="s">
         <v>143</v>
-      </c>
-      <c r="S77" s="115" t="s">
-        <v>144</v>
-      </c>
-      <c r="T77" s="328" t="s">
-        <v>145</v>
       </c>
       <c r="U77" s="329"/>
       <c r="V77" s="325"/>
@@ -11224,7 +11252,7 @@
         <v>1</v>
       </c>
       <c r="E78" s="333" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F78" s="334"/>
       <c r="G78" s="334"/>
@@ -11232,19 +11260,19 @@
       <c r="I78" s="334"/>
       <c r="J78" s="335"/>
       <c r="K78" s="289" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L78" s="290"/>
       <c r="M78" s="290"/>
       <c r="N78" s="291"/>
       <c r="O78" s="117" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="P78" s="118" t="s">
         <v>51</v>
       </c>
       <c r="Q78" s="118" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="R78" s="118" t="s">
         <v>51</v>
@@ -11397,7 +11425,7 @@
         <v>42</v>
       </c>
       <c r="E83" s="310" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F83" s="311"/>
       <c r="G83" s="311"/>
@@ -11405,7 +11433,7 @@
       <c r="I83" s="311"/>
       <c r="J83" s="312"/>
       <c r="K83" s="310" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L83" s="311"/>
       <c r="M83" s="311"/>
@@ -11414,7 +11442,7 @@
       <c r="P83" s="311"/>
       <c r="Q83" s="313"/>
       <c r="R83" s="280" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="S83" s="311"/>
       <c r="T83" s="311"/>
@@ -11424,14 +11452,14 @@
       <c r="X83" s="311"/>
       <c r="Y83" s="313"/>
       <c r="Z83" s="304" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AA83" s="305"/>
       <c r="AB83" s="305"/>
       <c r="AC83" s="305"/>
       <c r="AD83" s="306"/>
       <c r="AE83" s="301" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AF83" s="302"/>
       <c r="AG83" s="302"/>
@@ -11442,7 +11470,7 @@
         <v>1</v>
       </c>
       <c r="E84" s="307" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F84" s="308"/>
       <c r="G84" s="308"/>
@@ -11459,7 +11487,7 @@
       <c r="P84" s="290"/>
       <c r="Q84" s="291"/>
       <c r="R84" s="289" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="S84" s="290"/>
       <c r="T84" s="290"/>
@@ -11476,7 +11504,7 @@
       <c r="AC84" s="290"/>
       <c r="AD84" s="291"/>
       <c r="AE84" s="298" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AF84" s="299"/>
       <c r="AG84" s="299"/>
@@ -11487,7 +11515,7 @@
         <v>2</v>
       </c>
       <c r="E85" s="342" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F85" s="343"/>
       <c r="G85" s="343"/>
@@ -11495,7 +11523,7 @@
       <c r="I85" s="343"/>
       <c r="J85" s="344"/>
       <c r="K85" s="342" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L85" s="343"/>
       <c r="M85" s="343"/>
@@ -11504,7 +11532,7 @@
       <c r="P85" s="343"/>
       <c r="Q85" s="344"/>
       <c r="R85" s="342" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="S85" s="343"/>
       <c r="T85" s="343"/>
@@ -11521,7 +11549,7 @@
       <c r="AC85" s="343"/>
       <c r="AD85" s="344"/>
       <c r="AE85" s="345" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AF85" s="346"/>
       <c r="AG85" s="346"/>
@@ -11532,7 +11560,7 @@
         <v>3</v>
       </c>
       <c r="E86" s="307" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F86" s="308"/>
       <c r="G86" s="308"/>
@@ -11540,7 +11568,7 @@
       <c r="I86" s="308"/>
       <c r="J86" s="309"/>
       <c r="K86" s="289" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L86" s="290"/>
       <c r="M86" s="290"/>
@@ -11549,7 +11577,7 @@
       <c r="P86" s="290"/>
       <c r="Q86" s="291"/>
       <c r="R86" s="289" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="S86" s="290"/>
       <c r="T86" s="290"/>
@@ -11559,14 +11587,14 @@
       <c r="X86" s="290"/>
       <c r="Y86" s="291"/>
       <c r="Z86" s="307" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AA86" s="308"/>
       <c r="AB86" s="308"/>
       <c r="AC86" s="308"/>
       <c r="AD86" s="309"/>
       <c r="AE86" s="298" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AF86" s="299"/>
       <c r="AG86" s="299"/>
@@ -11577,7 +11605,7 @@
         <v>4</v>
       </c>
       <c r="E87" s="307" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F87" s="308"/>
       <c r="G87" s="308"/>
@@ -11585,7 +11613,7 @@
       <c r="I87" s="308"/>
       <c r="J87" s="309"/>
       <c r="K87" s="289" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="L87" s="290"/>
       <c r="M87" s="290"/>
@@ -11594,7 +11622,7 @@
       <c r="P87" s="290"/>
       <c r="Q87" s="291"/>
       <c r="R87" s="289" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="S87" s="290"/>
       <c r="T87" s="290"/>
@@ -11604,14 +11632,14 @@
       <c r="X87" s="290"/>
       <c r="Y87" s="291"/>
       <c r="Z87" s="289" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AA87" s="290"/>
       <c r="AB87" s="290"/>
       <c r="AC87" s="290"/>
       <c r="AD87" s="291"/>
       <c r="AE87" s="298" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AF87" s="299"/>
       <c r="AG87" s="299"/>
@@ -11734,7 +11762,7 @@
     <row r="91" spans="1:56" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C91" s="42"/>
       <c r="D91" s="128" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E91" s="128"/>
       <c r="AP91" s="42"/>
@@ -11777,7 +11805,7 @@
       <c r="C93" s="38"/>
       <c r="D93" s="128"/>
       <c r="E93" s="128" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AP93" s="38"/>
     </row>
@@ -11792,7 +11820,7 @@
       <c r="D95" s="128"/>
       <c r="E95" s="128"/>
       <c r="F95" s="54" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AP95" s="42"/>
     </row>
@@ -11841,17 +11869,17 @@
     </row>
     <row r="98" spans="3:58" x14ac:dyDescent="0.2">
       <c r="E98" s="54" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="99" spans="3:58" x14ac:dyDescent="0.2">
       <c r="F99" s="54" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="101" spans="3:58" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G101" s="314" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H101" s="315"/>
       <c r="I101" s="315"/>
@@ -11863,7 +11891,7 @@
       <c r="O101" s="315"/>
       <c r="P101" s="316"/>
       <c r="Q101" s="317" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="R101" s="318"/>
       <c r="S101" s="318"/>
@@ -11877,7 +11905,7 @@
     </row>
     <row r="102" spans="3:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G102" s="348" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H102" s="349"/>
       <c r="I102" s="349"/>
@@ -11889,7 +11917,7 @@
       <c r="O102" s="349"/>
       <c r="P102" s="350"/>
       <c r="Q102" s="333" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="R102" s="334"/>
       <c r="S102" s="334"/>
@@ -11915,7 +11943,7 @@
       <c r="O103" s="352"/>
       <c r="P103" s="353"/>
       <c r="Q103" s="333" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="R103" s="334"/>
       <c r="S103" s="334"/>
@@ -11945,7 +11973,7 @@
     </row>
     <row r="104" spans="3:58" x14ac:dyDescent="0.2">
       <c r="G104" s="339" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H104" s="340"/>
       <c r="I104" s="340"/>
@@ -12038,7 +12066,7 @@
     <row r="106" spans="3:58" x14ac:dyDescent="0.2">
       <c r="G106" s="136"/>
       <c r="H106" s="137" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="I106" s="137"/>
       <c r="J106" s="137"/>
@@ -12046,10 +12074,10 @@
       <c r="L106" s="138"/>
       <c r="N106" s="137"/>
       <c r="Q106" s="138" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="R106" s="137" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="S106" s="137"/>
       <c r="T106" s="137"/>
@@ -12200,7 +12228,7 @@
     </row>
     <row r="110" spans="3:58" x14ac:dyDescent="0.2">
       <c r="E110" s="54" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G110" s="44"/>
       <c r="AJ110" s="132"/>
@@ -12256,7 +12284,7 @@
     <row r="112" spans="3:58" x14ac:dyDescent="0.2">
       <c r="E112" s="68"/>
       <c r="F112" s="68" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AJ112" s="132"/>
       <c r="AK112" s="132"/>
@@ -12286,7 +12314,7 @@
       <c r="E113" s="68"/>
       <c r="F113" s="148"/>
       <c r="G113" s="68" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AJ113" s="132"/>
       <c r="AK113" s="132"/>
@@ -12341,7 +12369,7 @@
     <row r="115" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C115" s="42"/>
       <c r="D115" s="128" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E115" s="128"/>
       <c r="AP115" s="42"/>
@@ -12384,7 +12412,7 @@
       <c r="C117" s="38"/>
       <c r="D117" s="128"/>
       <c r="E117" s="128" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AP117" s="38"/>
     </row>
@@ -12399,7 +12427,7 @@
       <c r="D119" s="128"/>
       <c r="E119" s="128"/>
       <c r="F119" s="54" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AP119" s="42"/>
     </row>
@@ -12448,17 +12476,17 @@
     </row>
     <row r="122" spans="1:58" x14ac:dyDescent="0.2">
       <c r="E122" s="54" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="123" spans="1:58" x14ac:dyDescent="0.2">
       <c r="F123" s="54" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="125" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G125" s="314" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H125" s="315"/>
       <c r="I125" s="315"/>
@@ -12470,7 +12498,7 @@
       <c r="O125" s="315"/>
       <c r="P125" s="316"/>
       <c r="Q125" s="317" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="R125" s="318"/>
       <c r="S125" s="318"/>
@@ -12484,7 +12512,7 @@
     </row>
     <row r="126" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G126" s="348" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H126" s="349"/>
       <c r="I126" s="349"/>
@@ -12496,7 +12524,7 @@
       <c r="O126" s="349"/>
       <c r="P126" s="350"/>
       <c r="Q126" s="333" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="R126" s="334"/>
       <c r="S126" s="334"/>
@@ -12522,7 +12550,7 @@
       <c r="O127" s="352"/>
       <c r="P127" s="353"/>
       <c r="Q127" s="333" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="R127" s="334"/>
       <c r="S127" s="334"/>
@@ -12552,7 +12580,7 @@
     </row>
     <row r="128" spans="1:58" x14ac:dyDescent="0.2">
       <c r="G128" s="339" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H128" s="340"/>
       <c r="I128" s="340"/>
@@ -12645,7 +12673,7 @@
     <row r="130" spans="1:58" x14ac:dyDescent="0.2">
       <c r="G130" s="136"/>
       <c r="H130" s="137" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="I130" s="137"/>
       <c r="J130" s="137"/>
@@ -12654,10 +12682,10 @@
       <c r="N130" s="137"/>
       <c r="O130" s="137"/>
       <c r="Q130" s="138" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="R130" s="137" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="S130" s="137"/>
       <c r="T130" s="137"/>
@@ -12808,7 +12836,7 @@
     </row>
     <row r="134" spans="1:58" x14ac:dyDescent="0.2">
       <c r="E134" s="54" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G134" s="44"/>
       <c r="AJ134" s="132"/>
@@ -12864,7 +12892,7 @@
     <row r="136" spans="1:58" x14ac:dyDescent="0.2">
       <c r="E136" s="68"/>
       <c r="F136" s="68" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AJ136" s="132"/>
       <c r="AK136" s="132"/>
@@ -12894,7 +12922,7 @@
       <c r="E137" s="68"/>
       <c r="F137" s="148"/>
       <c r="G137" s="68" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AJ137" s="132"/>
       <c r="AK137" s="132"/>
@@ -12949,7 +12977,7 @@
     <row r="139" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C139" s="42"/>
       <c r="D139" s="128" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E139" s="128"/>
       <c r="AP139" s="42"/>
@@ -12992,7 +13020,7 @@
       <c r="C141" s="38"/>
       <c r="D141" s="128"/>
       <c r="E141" s="128" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AP141" s="38"/>
     </row>
@@ -13007,7 +13035,7 @@
       <c r="D143" s="128"/>
       <c r="E143" s="128"/>
       <c r="F143" s="54" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AP143" s="42"/>
     </row>
@@ -13056,7 +13084,7 @@
     </row>
     <row r="146" spans="3:58" x14ac:dyDescent="0.2">
       <c r="E146" s="54" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G146" s="44"/>
       <c r="AJ146" s="132"/>
@@ -13112,7 +13140,7 @@
     <row r="148" spans="3:58" x14ac:dyDescent="0.2">
       <c r="E148" s="68"/>
       <c r="F148" s="74" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G148" s="149"/>
       <c r="H148" s="149"/>
@@ -13204,7 +13232,7 @@
     <row r="151" spans="3:58" x14ac:dyDescent="0.2">
       <c r="C151" s="42"/>
       <c r="D151" s="128" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E151" s="128"/>
       <c r="AJ151" s="132"/>
@@ -13234,7 +13262,7 @@
     <row r="152" spans="3:58" x14ac:dyDescent="0.2">
       <c r="D152" s="42"/>
       <c r="E152" s="128" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F152" s="128"/>
       <c r="K152" s="44"/>
@@ -13297,7 +13325,7 @@
         <v>42</v>
       </c>
       <c r="G154" s="280" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H154" s="311"/>
       <c r="I154" s="311"/>
@@ -13305,7 +13333,7 @@
       <c r="K154" s="311"/>
       <c r="L154" s="313"/>
       <c r="M154" s="280" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="N154" s="311"/>
       <c r="O154" s="311"/>
@@ -13317,18 +13345,18 @@
       <c r="U154" s="311"/>
       <c r="V154" s="313"/>
       <c r="W154" s="366" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="X154" s="367"/>
       <c r="Y154" s="368"/>
       <c r="Z154" s="360" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AA154" s="361"/>
       <c r="AB154" s="361"/>
       <c r="AC154" s="362"/>
       <c r="AD154" s="336" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="AE154" s="337"/>
       <c r="AF154" s="337"/>
@@ -13363,7 +13391,7 @@
         <v>1</v>
       </c>
       <c r="G155" s="293" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H155" s="294"/>
       <c r="I155" s="294"/>
@@ -13371,7 +13399,7 @@
       <c r="K155" s="294"/>
       <c r="L155" s="295"/>
       <c r="M155" s="293" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="N155" s="294"/>
       <c r="O155" s="294"/>
@@ -13383,18 +13411,18 @@
       <c r="U155" s="294"/>
       <c r="V155" s="295"/>
       <c r="W155" s="369" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="X155" s="370"/>
       <c r="Y155" s="371"/>
       <c r="Z155" s="357" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="AA155" s="358"/>
       <c r="AB155" s="358"/>
       <c r="AC155" s="359"/>
       <c r="AD155" s="293" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AE155" s="294"/>
       <c r="AF155" s="294"/>
@@ -13430,7 +13458,7 @@
         <v>2</v>
       </c>
       <c r="G156" s="356" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H156" s="281"/>
       <c r="I156" s="281"/>
@@ -13438,7 +13466,7 @@
       <c r="K156" s="281"/>
       <c r="L156" s="282"/>
       <c r="M156" s="363" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="N156" s="364"/>
       <c r="O156" s="364"/>
@@ -13450,18 +13478,18 @@
       <c r="U156" s="364"/>
       <c r="V156" s="365"/>
       <c r="W156" s="330" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="X156" s="331"/>
       <c r="Y156" s="332"/>
       <c r="Z156" s="357" t="s">
-        <v>200</v>
+        <v>292</v>
       </c>
       <c r="AA156" s="358"/>
       <c r="AB156" s="358"/>
       <c r="AC156" s="359"/>
       <c r="AD156" s="363" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AE156" s="364"/>
       <c r="AF156" s="364"/>
@@ -13549,7 +13577,7 @@
       <c r="D158" s="38"/>
       <c r="E158" s="128"/>
       <c r="F158" s="56" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="159" spans="3:58" s="56" customFormat="1" x14ac:dyDescent="0.2">
@@ -13569,7 +13597,7 @@
     </row>
     <row r="162" spans="4:38" x14ac:dyDescent="0.2">
       <c r="E162" s="109" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F162" s="111"/>
       <c r="G162" s="111"/>
@@ -13609,7 +13637,7 @@
       <c r="D163" s="42"/>
       <c r="E163" s="109"/>
       <c r="F163" s="68" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G163" s="68"/>
       <c r="H163" s="68"/>
@@ -13881,7 +13909,7 @@
   <dimension ref="A1:BA119"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -14302,7 +14330,7 @@
       <c r="AA48" s="272"/>
       <c r="AB48" s="273"/>
       <c r="AC48" s="394" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="AD48" s="274"/>
       <c r="AE48" s="275"/>
@@ -14313,7 +14341,7 @@
       <c r="AJ48" s="49"/>
       <c r="AK48" s="49"/>
       <c r="AL48" s="49" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="AM48" s="49"/>
       <c r="AN48" s="49"/>
@@ -14427,7 +14455,7 @@
       <c r="G51" s="284"/>
       <c r="H51" s="296"/>
       <c r="I51" s="292" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J51" s="292"/>
       <c r="K51" s="292"/>
@@ -14455,7 +14483,7 @@
       <c r="AA51" s="290"/>
       <c r="AB51" s="291"/>
       <c r="AC51" s="106" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="AD51" s="289" t="s">
         <v>96</v>
@@ -14485,7 +14513,7 @@
       <c r="G52" s="284"/>
       <c r="H52" s="296"/>
       <c r="I52" s="292" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J52" s="292"/>
       <c r="K52" s="292"/>
@@ -14513,7 +14541,7 @@
       <c r="AA52" s="290"/>
       <c r="AB52" s="291"/>
       <c r="AC52" s="106" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="AD52" s="289" t="s">
         <v>96</v>
@@ -14537,13 +14565,13 @@
         <v>3</v>
       </c>
       <c r="E53" s="283" t="s">
-        <v>101</v>
+        <v>289</v>
       </c>
       <c r="F53" s="284"/>
       <c r="G53" s="284"/>
       <c r="H53" s="296"/>
       <c r="I53" s="292" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J53" s="292"/>
       <c r="K53" s="292"/>
@@ -14571,7 +14599,7 @@
       <c r="AA53" s="297"/>
       <c r="AB53" s="297"/>
       <c r="AC53" s="106" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="AD53" s="289" t="s">
         <v>103</v>
@@ -14598,13 +14626,13 @@
         <v>4</v>
       </c>
       <c r="E54" s="283" t="s">
-        <v>106</v>
+        <v>286</v>
       </c>
       <c r="F54" s="284"/>
       <c r="G54" s="284"/>
       <c r="H54" s="296"/>
       <c r="I54" s="292" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J54" s="292"/>
       <c r="K54" s="292"/>
@@ -14630,10 +14658,10 @@
       <c r="AA54" s="297"/>
       <c r="AB54" s="297"/>
       <c r="AC54" s="106" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="AD54" s="289" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AE54" s="290"/>
       <c r="AF54" s="290"/>
@@ -14657,13 +14685,13 @@
         <v>5</v>
       </c>
       <c r="E55" s="283" t="s">
-        <v>110</v>
+        <v>287</v>
       </c>
       <c r="F55" s="284"/>
       <c r="G55" s="284"/>
       <c r="H55" s="296"/>
       <c r="I55" s="292" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J55" s="292"/>
       <c r="K55" s="292"/>
@@ -14689,10 +14717,10 @@
       <c r="AA55" s="297"/>
       <c r="AB55" s="297"/>
       <c r="AC55" s="106" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="AD55" s="289" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AE55" s="290"/>
       <c r="AF55" s="290"/>
@@ -14716,13 +14744,13 @@
         <v>6</v>
       </c>
       <c r="E56" s="283" t="s">
-        <v>115</v>
+        <v>284</v>
       </c>
       <c r="F56" s="284"/>
       <c r="G56" s="284"/>
       <c r="H56" s="296"/>
       <c r="I56" s="292" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J56" s="292"/>
       <c r="K56" s="292"/>
@@ -14753,7 +14781,7 @@
         <v>51</v>
       </c>
       <c r="AD56" s="289" t="s">
-        <v>115</v>
+        <v>284</v>
       </c>
       <c r="AE56" s="290"/>
       <c r="AF56" s="290"/>
@@ -14770,13 +14798,13 @@
         <v>7</v>
       </c>
       <c r="E57" s="283" t="s">
-        <v>117</v>
+        <v>285</v>
       </c>
       <c r="F57" s="284"/>
       <c r="G57" s="284"/>
       <c r="H57" s="296"/>
       <c r="I57" s="292" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J57" s="292"/>
       <c r="K57" s="292"/>
@@ -14804,10 +14832,10 @@
       <c r="AA57" s="290"/>
       <c r="AB57" s="291"/>
       <c r="AC57" s="106" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="AD57" s="289" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AE57" s="290"/>
       <c r="AF57" s="290"/>
@@ -14828,13 +14856,13 @@
         <v>8</v>
       </c>
       <c r="E58" s="283" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F58" s="284"/>
       <c r="G58" s="284"/>
       <c r="H58" s="296"/>
       <c r="I58" s="292" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J58" s="292"/>
       <c r="K58" s="292"/>
@@ -14862,10 +14890,10 @@
       <c r="AA58" s="290"/>
       <c r="AB58" s="291"/>
       <c r="AC58" s="106" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="AD58" s="289" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AE58" s="290"/>
       <c r="AF58" s="290"/>
@@ -14886,13 +14914,13 @@
         <v>9</v>
       </c>
       <c r="E59" s="283" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F59" s="284"/>
       <c r="G59" s="284"/>
       <c r="H59" s="296"/>
       <c r="I59" s="292" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J59" s="292"/>
       <c r="K59" s="292"/>
@@ -14920,10 +14948,10 @@
       <c r="AA59" s="290"/>
       <c r="AB59" s="291"/>
       <c r="AC59" s="106" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="AD59" s="289" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AE59" s="290"/>
       <c r="AF59" s="290"/>
@@ -14942,13 +14970,13 @@
         <v>10</v>
       </c>
       <c r="E60" s="289" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F60" s="290"/>
       <c r="G60" s="290"/>
       <c r="H60" s="291"/>
       <c r="I60" s="292" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J60" s="292"/>
       <c r="K60" s="292"/>
@@ -14976,10 +15004,10 @@
       <c r="AA60" s="290"/>
       <c r="AB60" s="291"/>
       <c r="AC60" s="106" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="AD60" s="289" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AE60" s="290"/>
       <c r="AF60" s="290"/>
@@ -15001,13 +15029,13 @@
         <v>11</v>
       </c>
       <c r="E61" s="289" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F61" s="290"/>
       <c r="G61" s="290"/>
       <c r="H61" s="291"/>
       <c r="I61" s="292" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J61" s="292"/>
       <c r="K61" s="292"/>
@@ -15035,10 +15063,10 @@
       <c r="AA61" s="290"/>
       <c r="AB61" s="291"/>
       <c r="AC61" s="106" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="AD61" s="289" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AE61" s="290"/>
       <c r="AF61" s="290"/>
@@ -15059,13 +15087,13 @@
         <v>12</v>
       </c>
       <c r="E62" s="283" t="s">
-        <v>83</v>
+        <v>288</v>
       </c>
       <c r="F62" s="284"/>
       <c r="G62" s="284"/>
       <c r="H62" s="296"/>
       <c r="I62" s="292" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J62" s="292"/>
       <c r="K62" s="292"/>
@@ -15232,7 +15260,7 @@
         <v>42</v>
       </c>
       <c r="E67" s="322" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F67" s="323"/>
       <c r="G67" s="323"/>
@@ -15240,16 +15268,16 @@
       <c r="I67" s="323"/>
       <c r="J67" s="324"/>
       <c r="K67" s="322" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L67" s="323"/>
       <c r="M67" s="323"/>
       <c r="N67" s="324"/>
       <c r="O67" s="320" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P67" s="113" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q67" s="114"/>
       <c r="R67" s="114"/>
@@ -15299,19 +15327,19 @@
       <c r="N68" s="327"/>
       <c r="O68" s="321"/>
       <c r="P68" s="115" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q68" s="115" t="s">
+        <v>140</v>
+      </c>
+      <c r="R68" s="115" t="s">
         <v>141</v>
       </c>
-      <c r="Q68" s="115" t="s">
+      <c r="S68" s="115" t="s">
         <v>142</v>
       </c>
-      <c r="R68" s="115" t="s">
+      <c r="T68" s="328" t="s">
         <v>143</v>
-      </c>
-      <c r="S68" s="115" t="s">
-        <v>144</v>
-      </c>
-      <c r="T68" s="328" t="s">
-        <v>145</v>
       </c>
       <c r="U68" s="329"/>
       <c r="V68" s="325"/>
@@ -15346,7 +15374,7 @@
         <v>1</v>
       </c>
       <c r="E69" s="333" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F69" s="334"/>
       <c r="G69" s="334"/>
@@ -15354,16 +15382,16 @@
       <c r="I69" s="334"/>
       <c r="J69" s="335"/>
       <c r="K69" s="289" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L69" s="290"/>
       <c r="M69" s="290"/>
       <c r="N69" s="291"/>
       <c r="O69" s="154" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="P69" s="118" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="Q69" s="118" t="s">
         <v>51</v>
@@ -15412,7 +15440,7 @@
         <v>2</v>
       </c>
       <c r="E70" s="333" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F70" s="334"/>
       <c r="G70" s="334"/>
@@ -15420,19 +15448,19 @@
       <c r="I70" s="334"/>
       <c r="J70" s="335"/>
       <c r="K70" s="289" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L70" s="290"/>
       <c r="M70" s="290"/>
       <c r="N70" s="291"/>
       <c r="O70" s="117" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="P70" s="118" t="s">
         <v>51</v>
       </c>
       <c r="Q70" s="118" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="R70" s="118" t="s">
         <v>51</v>
@@ -15589,7 +15617,7 @@
         <v>42</v>
       </c>
       <c r="E75" s="310" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F75" s="311"/>
       <c r="G75" s="311"/>
@@ -15597,7 +15625,7 @@
       <c r="I75" s="311"/>
       <c r="J75" s="312"/>
       <c r="K75" s="310" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L75" s="311"/>
       <c r="M75" s="311"/>
@@ -15606,7 +15634,7 @@
       <c r="P75" s="311"/>
       <c r="Q75" s="313"/>
       <c r="R75" s="280" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="S75" s="311"/>
       <c r="T75" s="311"/>
@@ -15616,14 +15644,14 @@
       <c r="X75" s="311"/>
       <c r="Y75" s="313"/>
       <c r="Z75" s="304" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AA75" s="305"/>
       <c r="AB75" s="305"/>
       <c r="AC75" s="305"/>
       <c r="AD75" s="306"/>
       <c r="AE75" s="301" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AF75" s="302"/>
       <c r="AG75" s="302"/>
@@ -15634,7 +15662,7 @@
         <v>1</v>
       </c>
       <c r="E76" s="307" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F76" s="308"/>
       <c r="G76" s="308"/>
@@ -15642,7 +15670,7 @@
       <c r="I76" s="308"/>
       <c r="J76" s="309"/>
       <c r="K76" s="289" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="L76" s="290"/>
       <c r="M76" s="290"/>
@@ -15651,7 +15679,7 @@
       <c r="P76" s="290"/>
       <c r="Q76" s="291"/>
       <c r="R76" s="289" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="S76" s="290"/>
       <c r="T76" s="290"/>
@@ -15661,14 +15689,14 @@
       <c r="X76" s="290"/>
       <c r="Y76" s="291"/>
       <c r="Z76" s="289" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="AA76" s="290"/>
       <c r="AB76" s="290"/>
       <c r="AC76" s="290"/>
       <c r="AD76" s="291"/>
       <c r="AE76" s="411" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AF76" s="412"/>
       <c r="AG76" s="412"/>
@@ -15679,7 +15707,7 @@
         <v>2</v>
       </c>
       <c r="E77" s="307" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F77" s="308"/>
       <c r="G77" s="308"/>
@@ -15687,7 +15715,7 @@
       <c r="I77" s="308"/>
       <c r="J77" s="309"/>
       <c r="K77" s="289" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="L77" s="290"/>
       <c r="M77" s="290"/>
@@ -15696,7 +15724,7 @@
       <c r="P77" s="290"/>
       <c r="Q77" s="291"/>
       <c r="R77" s="289" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="S77" s="290"/>
       <c r="T77" s="290"/>
@@ -15713,7 +15741,7 @@
       <c r="AC77" s="290"/>
       <c r="AD77" s="291"/>
       <c r="AE77" s="411" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AF77" s="412"/>
       <c r="AG77" s="412"/>
@@ -15793,34 +15821,34 @@
     </row>
     <row r="81" spans="4:34" x14ac:dyDescent="0.2">
       <c r="D81" s="54" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="82" spans="4:34" x14ac:dyDescent="0.2">
       <c r="E82" s="128" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F82" s="128"/>
       <c r="K82" s="44"/>
     </row>
     <row r="84" spans="4:34" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G84" s="54" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="87" spans="4:34" x14ac:dyDescent="0.2">
       <c r="E87" s="54" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="89" spans="4:34" x14ac:dyDescent="0.2">
       <c r="F89" s="54" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="91" spans="4:34" x14ac:dyDescent="0.2">
       <c r="F91" s="54" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="92" spans="4:34" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -15829,7 +15857,7 @@
         <v>42</v>
       </c>
       <c r="H93" s="271" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="I93" s="272"/>
       <c r="J93" s="272"/>
@@ -15837,7 +15865,7 @@
       <c r="L93" s="272"/>
       <c r="M93" s="273"/>
       <c r="N93" s="408" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="O93" s="409"/>
       <c r="P93" s="409"/>
@@ -15880,7 +15908,7 @@
       <c r="Q94" s="409"/>
       <c r="R94" s="410"/>
       <c r="S94" s="314" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="T94" s="315"/>
       <c r="U94" s="315"/>
@@ -15903,7 +15931,7 @@
         <v>1</v>
       </c>
       <c r="H95" s="399" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I95" s="400"/>
       <c r="J95" s="400"/>
@@ -15911,14 +15939,14 @@
       <c r="L95" s="400"/>
       <c r="M95" s="401"/>
       <c r="N95" s="155" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="O95" s="156"/>
       <c r="P95" s="156"/>
       <c r="Q95" s="156"/>
       <c r="R95" s="157"/>
       <c r="S95" s="399" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="T95" s="400"/>
       <c r="U95" s="400"/>
@@ -15943,7 +15971,7 @@
         <v>2</v>
       </c>
       <c r="H96" s="399" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="I96" s="400"/>
       <c r="J96" s="400"/>
@@ -15951,14 +15979,14 @@
       <c r="L96" s="400"/>
       <c r="M96" s="401"/>
       <c r="N96" s="402" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="O96" s="403"/>
       <c r="P96" s="403"/>
       <c r="Q96" s="403"/>
       <c r="R96" s="404"/>
       <c r="S96" s="399" t="s">
-        <v>101</v>
+        <v>289</v>
       </c>
       <c r="T96" s="400"/>
       <c r="U96" s="400"/>
@@ -15983,7 +16011,7 @@
         <v>3</v>
       </c>
       <c r="H97" s="399" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="I97" s="400"/>
       <c r="J97" s="400"/>
@@ -15996,7 +16024,7 @@
       <c r="Q97" s="406"/>
       <c r="R97" s="407"/>
       <c r="S97" s="399" t="s">
-        <v>106</v>
+        <v>286</v>
       </c>
       <c r="T97" s="400"/>
       <c r="U97" s="400"/>
@@ -16021,7 +16049,7 @@
         <v>4</v>
       </c>
       <c r="H98" s="399" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="I98" s="400"/>
       <c r="J98" s="400"/>
@@ -16034,7 +16062,7 @@
       <c r="Q98" s="406"/>
       <c r="R98" s="407"/>
       <c r="S98" s="399" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="T98" s="400"/>
       <c r="U98" s="400"/>
@@ -16059,7 +16087,7 @@
         <v>5</v>
       </c>
       <c r="H99" s="399" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="I99" s="400"/>
       <c r="J99" s="400"/>
@@ -16072,7 +16100,7 @@
       <c r="Q99" s="406"/>
       <c r="R99" s="407"/>
       <c r="S99" s="399" t="s">
-        <v>128</v>
+        <v>290</v>
       </c>
       <c r="T99" s="400"/>
       <c r="U99" s="400"/>
@@ -16097,7 +16125,7 @@
         <v>6</v>
       </c>
       <c r="H100" s="399" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="I100" s="400"/>
       <c r="J100" s="400"/>
@@ -16110,7 +16138,7 @@
       <c r="Q100" s="406"/>
       <c r="R100" s="407"/>
       <c r="S100" s="399" t="s">
-        <v>132</v>
+        <v>291</v>
       </c>
       <c r="T100" s="400"/>
       <c r="U100" s="400"/>
@@ -16135,7 +16163,7 @@
         <v>7</v>
       </c>
       <c r="H101" s="399" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="I101" s="400"/>
       <c r="J101" s="400"/>
@@ -16173,7 +16201,7 @@
         <v>8</v>
       </c>
       <c r="H102" s="399" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="I102" s="400"/>
       <c r="J102" s="400"/>
@@ -16186,7 +16214,7 @@
       <c r="Q102" s="406"/>
       <c r="R102" s="407"/>
       <c r="S102" s="399" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="T102" s="400"/>
       <c r="U102" s="400"/>
@@ -16211,7 +16239,7 @@
         <v>9</v>
       </c>
       <c r="H103" s="399" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="I103" s="400"/>
       <c r="J103" s="400"/>
@@ -16224,7 +16252,7 @@
       <c r="Q103" s="406"/>
       <c r="R103" s="407"/>
       <c r="S103" s="399" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="T103" s="400"/>
       <c r="U103" s="400"/>
@@ -16249,7 +16277,7 @@
         <v>10</v>
       </c>
       <c r="H104" s="399" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="I104" s="400"/>
       <c r="J104" s="400"/>
@@ -16262,7 +16290,7 @@
       <c r="Q104" s="406"/>
       <c r="R104" s="407"/>
       <c r="S104" s="399" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="T104" s="400"/>
       <c r="U104" s="400"/>
@@ -16287,7 +16315,7 @@
         <v>11</v>
       </c>
       <c r="H105" s="399" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="I105" s="400"/>
       <c r="J105" s="400"/>
@@ -16300,7 +16328,7 @@
       <c r="Q105" s="406"/>
       <c r="R105" s="407"/>
       <c r="S105" s="399" t="s">
-        <v>83</v>
+        <v>288</v>
       </c>
       <c r="T105" s="400"/>
       <c r="U105" s="400"/>
@@ -16325,7 +16353,7 @@
         <v>12</v>
       </c>
       <c r="H106" s="399" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="I106" s="400"/>
       <c r="J106" s="400"/>
@@ -16338,7 +16366,7 @@
       <c r="Q106" s="406"/>
       <c r="R106" s="407"/>
       <c r="S106" s="399" t="s">
-        <v>115</v>
+        <v>284</v>
       </c>
       <c r="T106" s="400"/>
       <c r="U106" s="400"/>
@@ -16363,7 +16391,7 @@
         <v>13</v>
       </c>
       <c r="H107" s="399" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="I107" s="400"/>
       <c r="J107" s="400"/>
@@ -16386,7 +16414,7 @@
       <c r="W107" s="400"/>
       <c r="X107" s="401"/>
       <c r="Y107" s="289" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="Z107" s="290"/>
       <c r="AA107" s="290"/>
@@ -16410,27 +16438,27 @@
     </row>
     <row r="110" spans="5:37" x14ac:dyDescent="0.2">
       <c r="E110" s="54" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="112" spans="5:37" x14ac:dyDescent="0.2">
       <c r="F112" s="54" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="115" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D115" s="54" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="117" spans="4:6" x14ac:dyDescent="0.2">
       <c r="E117" s="54" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="119" spans="4:6" x14ac:dyDescent="0.2">
       <c r="F119" s="54" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -16683,7 +16711,7 @@
   <dimension ref="A1:BA89"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -17233,7 +17261,7 @@
       <c r="AA44" s="272"/>
       <c r="AB44" s="273"/>
       <c r="AC44" s="394" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="AD44" s="274"/>
       <c r="AE44" s="275"/>
@@ -17296,13 +17324,13 @@
         <v>1</v>
       </c>
       <c r="E46" s="289" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F46" s="290"/>
       <c r="G46" s="290"/>
       <c r="H46" s="291"/>
       <c r="I46" s="288" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J46" s="288"/>
       <c r="K46" s="288"/>
@@ -17494,7 +17522,7 @@
         <v>42</v>
       </c>
       <c r="E51" s="322" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F51" s="323"/>
       <c r="G51" s="323"/>
@@ -17502,16 +17530,16 @@
       <c r="I51" s="323"/>
       <c r="J51" s="324"/>
       <c r="K51" s="322" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L51" s="323"/>
       <c r="M51" s="323"/>
       <c r="N51" s="324"/>
       <c r="O51" s="320" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P51" s="113" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q51" s="114"/>
       <c r="R51" s="114"/>
@@ -17562,19 +17590,19 @@
       <c r="N52" s="327"/>
       <c r="O52" s="321"/>
       <c r="P52" s="115" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q52" s="115" t="s">
+        <v>140</v>
+      </c>
+      <c r="R52" s="115" t="s">
         <v>141</v>
       </c>
-      <c r="Q52" s="115" t="s">
+      <c r="S52" s="115" t="s">
         <v>142</v>
       </c>
-      <c r="R52" s="115" t="s">
+      <c r="T52" s="328" t="s">
         <v>143</v>
-      </c>
-      <c r="S52" s="115" t="s">
-        <v>144</v>
-      </c>
-      <c r="T52" s="328" t="s">
-        <v>145</v>
       </c>
       <c r="U52" s="329"/>
       <c r="V52" s="325"/>
@@ -17782,13 +17810,13 @@
         <v>42</v>
       </c>
       <c r="E58" s="304" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F58" s="305"/>
       <c r="G58" s="305"/>
       <c r="H58" s="306"/>
       <c r="I58" s="304" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J58" s="305"/>
       <c r="K58" s="305"/>
@@ -17797,7 +17825,7 @@
       <c r="N58" s="305"/>
       <c r="O58" s="306"/>
       <c r="P58" s="425" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="Q58" s="426"/>
       <c r="R58" s="426"/>
@@ -17809,14 +17837,14 @@
       <c r="X58" s="426"/>
       <c r="Y58" s="427"/>
       <c r="Z58" s="304" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AA58" s="305"/>
       <c r="AB58" s="305"/>
       <c r="AC58" s="305"/>
       <c r="AD58" s="306"/>
       <c r="AE58" s="431" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AF58" s="432"/>
       <c r="AG58" s="432"/>
@@ -17843,13 +17871,13 @@
         <v>1</v>
       </c>
       <c r="E59" s="428" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F59" s="429"/>
       <c r="G59" s="429"/>
       <c r="H59" s="430"/>
       <c r="I59" s="289" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="J59" s="290"/>
       <c r="K59" s="290"/>
@@ -17858,7 +17886,7 @@
       <c r="N59" s="290"/>
       <c r="O59" s="291"/>
       <c r="P59" s="289" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="Q59" s="290"/>
       <c r="R59" s="290"/>
@@ -17877,7 +17905,7 @@
       <c r="AC59" s="290"/>
       <c r="AD59" s="291"/>
       <c r="AE59" s="411" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AF59" s="412"/>
       <c r="AG59" s="412"/>
@@ -17918,7 +17946,7 @@
     <row r="63" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A63" s="56"/>
       <c r="D63" s="54" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="64" spans="1:53" x14ac:dyDescent="0.2">
@@ -17927,7 +17955,7 @@
     <row r="65" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A65" s="56"/>
       <c r="E65" s="54" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="66" spans="1:40" x14ac:dyDescent="0.2">
@@ -18261,16 +18289,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="172" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B1" s="173" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C1" s="174" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D1" s="174" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -18278,27 +18306,27 @@
         <v>51</v>
       </c>
       <c r="B2" s="175" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C2" s="176" t="s">
         <v>51</v>
       </c>
       <c r="D2" s="117" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="117" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B3" s="175" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C3" s="117" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D3" s="117" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -18306,45 +18334,45 @@
         <v>102</v>
       </c>
       <c r="B4" s="117" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C4" s="117" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D4" s="117" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="117" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B5" s="117" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C5" s="117" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="117" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C6" s="117" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="117" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C7" s="117" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="117" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -18354,17 +18382,17 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="117" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="117" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="117" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
